--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 250/S&P500_returns_compared_quarter.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 250/S&P500_returns_compared_quarter.xlsx
@@ -501,13 +501,13 @@
         <v>0.06430220027675157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06229629373405176</v>
+        <v>0.06257505313200211</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.119499074785229</v>
+        <v>-2.685984518905973</v>
       </c>
       <c r="I2" t="n">
-        <v>2.0974235441494</v>
+        <v>-6.302553151364791</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05620703983727632</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06406729067563187</v>
+        <v>0.06811769916351476</v>
       </c>
       <c r="H3" t="n">
-        <v>13.98445970666945</v>
+        <v>21.19068956614814</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.02031160804577985</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02568920071667367</v>
+        <v>-0.02276256339526492</v>
       </c>
       <c r="H4" t="n">
-        <v>26.47546495961025</v>
+        <v>-12.06677159169732</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.0114313309642807</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01482375902858735</v>
+        <v>-0.0224435486643241</v>
       </c>
       <c r="H5" t="n">
-        <v>29.67657987426763</v>
+        <v>-96.33364421389865</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.01119355766909296</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.007744213044846637</v>
+        <v>-0.0101449860531542</v>
       </c>
       <c r="H6" t="n">
-        <v>-30.8154451535142</v>
+        <v>9.367634910516596</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.005663736011200975</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.01094914055259825</v>
+        <v>-0.02020051505303744</v>
       </c>
       <c r="H7" t="n">
-        <v>93.32010762762447</v>
+        <v>-256.6641350000703</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.005689162997188748</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0001214371261703013</v>
+        <v>-0.0008845633449788281</v>
       </c>
       <c r="H8" t="n">
-        <v>-97.86546586500847</v>
+        <v>84.4517841127785</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.00549314623748372</v>
       </c>
       <c r="G9" t="n">
-        <v>0.002052392949550781</v>
+        <v>-0.001110103134557975</v>
       </c>
       <c r="H9" t="n">
-        <v>-137.3627946684874</v>
+        <v>79.79112358263946</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.06302175465285266</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05649512170579216</v>
+        <v>-0.06162156782579986</v>
       </c>
       <c r="H10" t="n">
-        <v>-10.35615873123753</v>
+        <v>2.221751575730556</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.06407804798776505</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06719249481565694</v>
+        <v>-0.06757750333692719</v>
       </c>
       <c r="H11" t="n">
-        <v>4.860395916689837</v>
+        <v>-5.461239003145542</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.3946034008486138</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.3817503557346077</v>
+        <v>-0.392819015883466</v>
       </c>
       <c r="H12" t="n">
-        <v>-3.257205864512316</v>
+        <v>0.4521970569210404</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.3921192001403502</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3985883881212602</v>
+        <v>-0.4101209682551671</v>
       </c>
       <c r="H13" t="n">
-        <v>1.649801381466276</v>
+        <v>-4.590891776881515</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.008194263515627137</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.01061625980251224</v>
+        <v>-0.02547496541445629</v>
       </c>
       <c r="H14" t="n">
-        <v>29.55721746397534</v>
+        <v>-210.8877981025803</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.04531867545837153</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01443398096172144</v>
+        <v>-0.01814609052928595</v>
       </c>
       <c r="H15" t="n">
-        <v>-68.15003789115573</v>
+        <v>59.95891242241967</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1367496493365438</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1352172701448725</v>
+        <v>0.1391457740419385</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.120572666259694</v>
+        <v>1.752198061947348</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.139470638516013</v>
       </c>
       <c r="G17" t="n">
-        <v>0.158158503631735</v>
+        <v>0.1395459391505189</v>
       </c>
       <c r="H17" t="n">
-        <v>13.39913928448561</v>
+        <v>0.05399031316349422</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1176682078228325</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1276217496993361</v>
+        <v>0.1281484326548413</v>
       </c>
       <c r="H18" t="n">
-        <v>8.458989952060953</v>
+        <v>8.906590000748876</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1286688512358997</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1256372341245077</v>
+        <v>0.1265656535905688</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.356139098369557</v>
+        <v>-1.634581816134293</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0887346326950179</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0867389577252671</v>
+        <v>0.08235920787833834</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.249037280190202</v>
+        <v>-7.184821329674042</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0870910252674075</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08724990618706895</v>
+        <v>0.08577644863445129</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1824308752521979</v>
+        <v>-1.509428358341044</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.09348316940674502</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1012419303651831</v>
+        <v>-0.1006984782223957</v>
       </c>
       <c r="H22" t="n">
-        <v>8.29963404929045</v>
+        <v>-7.718297166687712</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.1014450181243147</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1004551596483152</v>
+        <v>-0.1015784942657152</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.975758587559705</v>
+        <v>-0.1315748608146956</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1610910614870565</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1623684114674041</v>
+        <v>0.1662150694387406</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7929365965784672</v>
+        <v>3.180814568098048</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1705957319629827</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1697304998319144</v>
+        <v>0.1699360628377588</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.5071827537022052</v>
+        <v>-0.3866855973671305</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.09065379568887895</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08634928893301144</v>
+        <v>0.08715594120014292</v>
       </c>
       <c r="H26" t="n">
-        <v>-4.748291809689296</v>
+        <v>-3.858475491462665</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08596174627959136</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08600240509730311</v>
+        <v>0.08792907806349864</v>
       </c>
       <c r="H27" t="n">
-        <v>0.04729873399676551</v>
+        <v>2.288613097165947</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1376404363611178</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1364316895755673</v>
+        <v>-0.1349517980561659</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.8781916255911817</v>
+        <v>1.953378219390355</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.139799765468738</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1396850701846301</v>
+        <v>-0.1420691564941845</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.0820425440080942</v>
+        <v>-1.623315330921616</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.05201527458957067</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04389380570650412</v>
+        <v>0.05240863308751365</v>
       </c>
       <c r="H30" t="n">
-        <v>-15.61362301198915</v>
+        <v>0.7562365113840086</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.04381940301294323</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04080012369610501</v>
+        <v>0.0477011399336254</v>
       </c>
       <c r="H31" t="n">
-        <v>-6.890279440699813</v>
+        <v>8.858488828648802</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.1087039316652881</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1134598579919282</v>
+        <v>0.107497116889967</v>
       </c>
       <c r="H32" t="n">
-        <v>4.375118961919557</v>
+        <v>-1.110185029035583</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1240951924378725</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1192243572023385</v>
+        <v>0.1125697423380556</v>
       </c>
       <c r="H33" t="n">
-        <v>-3.925079722949423</v>
+        <v>-9.287587918111367</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01561639394697787</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.009057337342095651</v>
+        <v>-0.01299705123635513</v>
       </c>
       <c r="H34" t="n">
-        <v>-42.0010959454026</v>
+        <v>16.77303172240761</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01673728840714555</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.007227549810956226</v>
+        <v>-0.01802620691242656</v>
       </c>
       <c r="H35" t="n">
-        <v>-56.81767777945076</v>
+        <v>-7.700880058509007</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0367669095218597</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03264620213822807</v>
+        <v>0.03130792854008258</v>
       </c>
       <c r="H36" t="n">
-        <v>-11.20765230806706</v>
+        <v>-14.84753832391459</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.03568564846322125</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03981391098951424</v>
+        <v>0.04008925584117872</v>
       </c>
       <c r="H37" t="n">
-        <v>11.56841112344562</v>
+        <v>12.33999539757828</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1003022293749185</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1006978241399912</v>
+        <v>0.1013978765757192</v>
       </c>
       <c r="H38" t="n">
-        <v>0.3944027640642062</v>
+        <v>1.092345810884516</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.09740001496869774</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1036074622202664</v>
+        <v>0.1006938282631171</v>
       </c>
       <c r="H39" t="n">
-        <v>6.373148149477799</v>
+        <v>3.381737975582362</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.03368761974707651</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02896034025552261</v>
+        <v>0.03059886667688213</v>
       </c>
       <c r="H40" t="n">
-        <v>-14.03269072450315</v>
+        <v>-9.168807690731629</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.03221872503435347</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0389784792588888</v>
+        <v>0.02625604845921981</v>
       </c>
       <c r="H41" t="n">
-        <v>20.98082471397516</v>
+        <v>-18.50686695012267</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.120905430485417</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1217619781557333</v>
+        <v>0.1209285338811033</v>
       </c>
       <c r="H42" t="n">
-        <v>0.708444332795788</v>
+        <v>0.0191086501189757</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1277854472102046</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1228717012028384</v>
+        <v>0.1266551918341156</v>
       </c>
       <c r="H43" t="n">
-        <v>-3.845309551785802</v>
+        <v>-0.884494596814097</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03966663921623352</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03538945496118522</v>
+        <v>0.04217150620522603</v>
       </c>
       <c r="H44" t="n">
-        <v>-10.7828249117154</v>
+        <v>6.314795098565834</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.03116235293120943</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03468633585186687</v>
+        <v>0.03595875262900555</v>
       </c>
       <c r="H45" t="n">
-        <v>11.3084622603325</v>
+        <v>15.39164808377636</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05661766501078581</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05821789003930605</v>
+        <v>0.05686179819159423</v>
       </c>
       <c r="H46" t="n">
-        <v>2.826370582777299</v>
+        <v>0.4311961306809745</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.05867018666263921</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06139479885792906</v>
+        <v>0.06224557545466997</v>
       </c>
       <c r="H47" t="n">
-        <v>4.643946696397458</v>
+        <v>6.094047071282885</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.0492573227224047</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04427749987429139</v>
+        <v>0.04623503830400241</v>
       </c>
       <c r="H48" t="n">
-        <v>-10.10981225304849</v>
+        <v>-6.13570582273567</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.04556774728077833</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04832087958918963</v>
+        <v>0.03881861603957311</v>
       </c>
       <c r="H49" t="n">
-        <v>6.041844226898276</v>
+        <v>-14.81120231732891</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.02648648375354524</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02738951365644691</v>
+        <v>0.02640027500007253</v>
       </c>
       <c r="H50" t="n">
-        <v>3.409398964786325</v>
+        <v>-0.3254820620014274</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.02801586845999868</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02950024825750748</v>
+        <v>0.02837092203851672</v>
       </c>
       <c r="H51" t="n">
-        <v>5.29835367990898</v>
+        <v>1.267330259724016</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.0869236411111307</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.08941393888125353</v>
+        <v>-0.08625186371179056</v>
       </c>
       <c r="H52" t="n">
-        <v>2.864925742053324</v>
+        <v>0.7728362396615259</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.08021620192907158</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.08273559175842399</v>
+        <v>-0.07801219005127261</v>
       </c>
       <c r="H53" t="n">
-        <v>3.14074933587617</v>
+        <v>2.747589420585881</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05002670192732103</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05317509800922302</v>
+        <v>0.04783999368801759</v>
       </c>
       <c r="H54" t="n">
-        <v>6.293431228938479</v>
+        <v>-4.37108215224801</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.05628505677750023</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05374045592070072</v>
+        <v>0.05289278510971154</v>
       </c>
       <c r="H55" t="n">
-        <v>-4.520917278023789</v>
+        <v>-6.026949002110161</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04943189498738422</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04674363395520578</v>
+        <v>0.04984459331968557</v>
       </c>
       <c r="H56" t="n">
-        <v>-5.438312718669845</v>
+        <v>0.8348826853728268</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.03798397785815282</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04804754350885369</v>
+        <v>0.0504877129872548</v>
       </c>
       <c r="H57" t="n">
-        <v>26.49423840831574</v>
+        <v>32.91844570833489</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.05761405260974202</v>
       </c>
       <c r="G58" t="n">
-        <v>0.05340276886109389</v>
+        <v>0.05800623984838288</v>
       </c>
       <c r="H58" t="n">
-        <v>-7.30947322378784</v>
+        <v>0.6807145494475143</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.05701330928205455</v>
       </c>
       <c r="G59" t="n">
-        <v>0.06246581636816433</v>
+        <v>0.06340563821663482</v>
       </c>
       <c r="H59" t="n">
-        <v>9.563568848696889</v>
+        <v>11.21199420815292</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.0274599995184495</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03269155549417262</v>
+        <v>0.03795475756637268</v>
       </c>
       <c r="H60" t="n">
-        <v>19.05155159310254</v>
+        <v>38.21834753082236</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.02669782531682307</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03252675440173438</v>
+        <v>0.03481304914890532</v>
       </c>
       <c r="H61" t="n">
-        <v>21.8329733442309</v>
+        <v>30.39657251397406</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06244723127188902</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06200402702603259</v>
+        <v>0.06323213624758801</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.7097260147960139</v>
+        <v>1.256909169089657</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.06388266935418922</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06258080055986698</v>
+        <v>0.06453433221337211</v>
       </c>
       <c r="H63" t="n">
-        <v>-2.037906066673891</v>
+        <v>1.020093345770867</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.02773965742366112</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03003107652563345</v>
+        <v>0.02250437337694905</v>
       </c>
       <c r="H64" t="n">
-        <v>8.260444846077354</v>
+        <v>-18.87292249776137</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.03542725191258321</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02925126401235062</v>
+        <v>0.02886771381773781</v>
       </c>
       <c r="H65" t="n">
-        <v>-17.43287318889946</v>
+        <v>-18.51551486700427</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.07768318116585711</v>
       </c>
       <c r="G66" t="n">
-        <v>0.07369841755840835</v>
+        <v>0.07937964866103574</v>
       </c>
       <c r="H66" t="n">
-        <v>-5.129506216977791</v>
+        <v>2.183828558149019</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.07887083315115107</v>
       </c>
       <c r="G67" t="n">
-        <v>0.07942602410669121</v>
+        <v>0.0822846333244569</v>
       </c>
       <c r="H67" t="n">
-        <v>0.7039242941381829</v>
+        <v>4.328342984235376</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.02174569273343878</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.01710497727286825</v>
+        <v>-0.0230784282516971</v>
       </c>
       <c r="H68" t="n">
-        <v>-21.34084904747325</v>
+        <v>-6.128733329377666</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.01914131219638707</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.01910147544708729</v>
+        <v>-0.02500571335017782</v>
       </c>
       <c r="H69" t="n">
-        <v>-0.2081192182179605</v>
+        <v>-30.63740402759669</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.07198586282950344</v>
       </c>
       <c r="G70" t="n">
-        <v>0.06940225487165967</v>
+        <v>0.07555875802645712</v>
       </c>
       <c r="H70" t="n">
-        <v>-3.589049094213081</v>
+        <v>4.963328987826384</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.07942103784650886</v>
       </c>
       <c r="G71" t="n">
-        <v>0.08042935337356705</v>
+        <v>0.07020440325943594</v>
       </c>
       <c r="H71" t="n">
-        <v>1.269582410905888</v>
+        <v>-11.60477731968855</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.153641482353053</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1537710173917816</v>
+        <v>-0.1498602767390565</v>
       </c>
       <c r="H72" t="n">
-        <v>0.08430993813957814</v>
+        <v>2.461057753470293</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.1530755548355022</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1402276611970713</v>
+        <v>-0.1514292057344177</v>
       </c>
       <c r="H73" t="n">
-        <v>-8.393171367066071</v>
+        <v>1.075514051119194</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.1504191938700591</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1473008813455416</v>
+        <v>0.1531379152630579</v>
       </c>
       <c r="H74" t="n">
-        <v>-2.073081529217128</v>
+        <v>1.8074298386065</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.1504473245389763</v>
       </c>
       <c r="G75" t="n">
-        <v>0.157179821489135</v>
+        <v>0.1496555861218068</v>
       </c>
       <c r="H75" t="n">
-        <v>4.474986159301571</v>
+        <v>-0.5262562292787016</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>-0.001036461659646316</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.005231111211859575</v>
+        <v>-0.001736312633021055</v>
       </c>
       <c r="H76" t="n">
-        <v>404.7086077110319</v>
+        <v>-67.52309329160883</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.002207887785011652</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.001596320734511802</v>
+        <v>-0.005859162608341979</v>
       </c>
       <c r="H77" t="n">
-        <v>-27.69919081266272</v>
+        <v>-165.3741122224224</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.08995825041656207</v>
       </c>
       <c r="G78" t="n">
-        <v>0.09256626316181318</v>
+        <v>0.09266395776665452</v>
       </c>
       <c r="H78" t="n">
-        <v>2.899136803099675</v>
+        <v>3.007736741836759</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.09690136472519406</v>
       </c>
       <c r="G79" t="n">
-        <v>0.09355867072358165</v>
+        <v>0.09293278869200707</v>
       </c>
       <c r="H79" t="n">
-        <v>-3.449584029174484</v>
+        <v>-4.095480021815605</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.2164333678654655</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2116238719522187</v>
+        <v>-0.2104528402323944</v>
       </c>
       <c r="H80" t="n">
-        <v>-2.222160085886735</v>
+        <v>2.763218856710008</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2131138853448898</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2152186584104493</v>
+        <v>-0.2011668992220656</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9876283106346062</v>
+        <v>5.605916340687964</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1676176682046469</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1644012601952096</v>
+        <v>0.1733460959593346</v>
       </c>
       <c r="H82" t="n">
-        <v>-1.918895569833578</v>
+        <v>3.417556046474623</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1760289321846955</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1796248783900925</v>
+        <v>0.1670646425038058</v>
       </c>
       <c r="H83" t="n">
-        <v>2.042815439920981</v>
+        <v>-5.092509265172435</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.1061296970151781</v>
       </c>
       <c r="G84" t="n">
-        <v>0.107781937703544</v>
+        <v>0.09986064149770602</v>
       </c>
       <c r="H84" t="n">
-        <v>1.55681278175099</v>
+        <v>-5.906975798277764</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.1045588069048112</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1085983238612704</v>
+        <v>0.1158676633681304</v>
       </c>
       <c r="H85" t="n">
-        <v>3.863392358844256</v>
+        <v>10.81578567897644</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>

--- a/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 250/S&P500_returns_compared_quarter.xlsx
+++ b/Code/Data/S&P500/Compared Returns/Auto Recurrence/input 250/S&P500_returns_compared_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.06430220027675157</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06257505313200211</v>
+        <v>0.05827466589841016</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.685984518905973</v>
+        <v>-9.373760699321917</v>
       </c>
       <c r="I2" t="n">
-        <v>-6.302553151364791</v>
+        <v>1.125878855932595</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.05620703983727632</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06811769916351476</v>
+        <v>0.06513461836194495</v>
       </c>
       <c r="H3" t="n">
-        <v>21.19068956614814</v>
+        <v>15.88338142431029</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>-0.02031160804577985</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02276256339526492</v>
+        <v>-0.0245898057029326</v>
       </c>
       <c r="H4" t="n">
-        <v>-12.06677159169732</v>
+        <v>-21.06282106030316</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.0114313309642807</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0224435486643241</v>
+        <v>-0.005005280353070471</v>
       </c>
       <c r="H5" t="n">
-        <v>-96.33364421389865</v>
+        <v>56.21436936162208</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.01119355766909296</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0101449860531542</v>
+        <v>-0.02689097679502047</v>
       </c>
       <c r="H6" t="n">
-        <v>9.367634910516596</v>
+        <v>-140.236192906482</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.005663736011200975</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.02020051505303744</v>
+        <v>-0.01177810742294736</v>
       </c>
       <c r="H7" t="n">
-        <v>-256.6641350000703</v>
+        <v>-107.9565043224862</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.005689162997188748</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0008845633449788281</v>
+        <v>0.005862896202882596</v>
       </c>
       <c r="H8" t="n">
-        <v>84.4517841127785</v>
+        <v>203.053756866866</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.00549314623748372</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.001110103134557975</v>
+        <v>-0.01070679914971268</v>
       </c>
       <c r="H9" t="n">
-        <v>79.79112358263946</v>
+        <v>-94.91196277740477</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.06302175465285266</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06162156782579986</v>
+        <v>-0.06048121483629408</v>
       </c>
       <c r="H10" t="n">
-        <v>2.221751575730556</v>
+        <v>4.031210858143859</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.06407804798776505</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06757750333692719</v>
+        <v>-0.05841567825681807</v>
       </c>
       <c r="H11" t="n">
-        <v>-5.461239003145542</v>
+        <v>8.83667637944923</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.3946034008486138</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.392819015883466</v>
+        <v>-0.3724713856422338</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4521970569210404</v>
+        <v>5.608673204230881</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.3921192001403502</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.4101209682551671</v>
+        <v>-0.4165823501648836</v>
       </c>
       <c r="H13" t="n">
-        <v>-4.590891776881515</v>
+        <v>-6.238702419003555</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.008194263515627137</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02547496541445629</v>
+        <v>-0.0243803164075258</v>
       </c>
       <c r="H14" t="n">
-        <v>-210.8877981025803</v>
+        <v>-197.5290745901755</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.04531867545837153</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01814609052928595</v>
+        <v>-0.02082395709492418</v>
       </c>
       <c r="H15" t="n">
-        <v>59.95891242241967</v>
+        <v>54.04994324237811</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1367496493365438</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1391457740419385</v>
+        <v>0.1319814381583955</v>
       </c>
       <c r="H16" t="n">
-        <v>1.752198061947348</v>
+        <v>-3.486817846540598</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.139470638516013</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1395459391505189</v>
+        <v>0.1515503134163456</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05399031316349422</v>
+        <v>8.661088117801725</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1176682078228325</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1281484326548413</v>
+        <v>0.1152557440024727</v>
       </c>
       <c r="H18" t="n">
-        <v>8.906590000748876</v>
+        <v>-2.050225685422295</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1286688512358997</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1265656535905688</v>
+        <v>0.1187911247363713</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.634581816134293</v>
+        <v>-7.676859165718911</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0887346326950179</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08235920787833834</v>
+        <v>0.08956501910640609</v>
       </c>
       <c r="H20" t="n">
-        <v>-7.184821329674042</v>
+        <v>0.9358086985520511</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0870910252674075</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08577644863445129</v>
+        <v>0.09303514630930471</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.509428358341044</v>
+        <v>6.825182070880617</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.09348316940674502</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1006984782223957</v>
+        <v>-0.09913972101773226</v>
       </c>
       <c r="H22" t="n">
-        <v>-7.718297166687712</v>
+        <v>-6.050877015493134</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.1014450181243147</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1015784942657152</v>
+        <v>-0.1021737610584678</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.1315748608146956</v>
+        <v>-0.7183624663165582</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1610910614870565</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1662150694387406</v>
+        <v>0.1645349111905927</v>
       </c>
       <c r="H24" t="n">
-        <v>3.180814568098048</v>
+        <v>2.137827928964812</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1705957319629827</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1699360628377588</v>
+        <v>0.1723493042693961</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.3866855973671305</v>
+        <v>1.027911007054918</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.09065379568887895</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08715594120014292</v>
+        <v>0.08992923081938585</v>
       </c>
       <c r="H26" t="n">
-        <v>-3.858475491462665</v>
+        <v>-0.7992658928256947</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08596174627959136</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08792907806349864</v>
+        <v>0.08589392136060651</v>
       </c>
       <c r="H27" t="n">
-        <v>2.288613097165947</v>
+        <v>-0.07890128100031786</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.1376404363611178</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1349517980561659</v>
+        <v>-0.1402476163640358</v>
       </c>
       <c r="H28" t="n">
-        <v>1.953378219390355</v>
+        <v>-1.894196263718393</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.139799765468738</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1420691564941845</v>
+        <v>-0.1431779844069648</v>
       </c>
       <c r="H29" t="n">
-        <v>-1.623315330921616</v>
+        <v>-2.41646967496682</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.05201527458957067</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05240863308751365</v>
+        <v>0.0491453962518169</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7562365113840086</v>
+        <v>-5.517376117686004</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.04381940301294323</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0477011399336254</v>
+        <v>0.04611227313010585</v>
       </c>
       <c r="H31" t="n">
-        <v>8.858488828648802</v>
+        <v>5.232545309860479</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.1087039316652881</v>
       </c>
       <c r="G32" t="n">
-        <v>0.107497116889967</v>
+        <v>0.1163156479122742</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.110185029035583</v>
+        <v>7.002245576934087</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.1240951924378725</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1125697423380556</v>
+        <v>0.1211998253111457</v>
       </c>
       <c r="H33" t="n">
-        <v>-9.287587918111367</v>
+        <v>-2.333182349651732</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>-0.01561639394697787</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.01299705123635513</v>
+        <v>-0.01310417945064889</v>
       </c>
       <c r="H34" t="n">
-        <v>16.77303172240761</v>
+        <v>16.087033311651</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01673728840714555</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.01802620691242656</v>
+        <v>-0.009902989387291007</v>
       </c>
       <c r="H35" t="n">
-        <v>-7.700880058509007</v>
+        <v>40.83277322828957</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.0367669095218597</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03130792854008258</v>
+        <v>0.03730085483628309</v>
       </c>
       <c r="H36" t="n">
-        <v>-14.84753832391459</v>
+        <v>1.452244209173835</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.03568564846322125</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04008925584117872</v>
+        <v>0.03381165244018244</v>
       </c>
       <c r="H37" t="n">
-        <v>12.33999539757828</v>
+        <v>-5.251399662724963</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1003022293749185</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1013978765757192</v>
+        <v>0.09945957467631172</v>
       </c>
       <c r="H38" t="n">
-        <v>1.092345810884516</v>
+        <v>-0.8401156224125716</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.09740001496869774</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1006938282631171</v>
+        <v>0.1009795311699805</v>
       </c>
       <c r="H39" t="n">
-        <v>3.381737975582362</v>
+        <v>3.675067403668406</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.03368761974707651</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03059886667688213</v>
+        <v>0.0312154112119229</v>
       </c>
       <c r="H40" t="n">
-        <v>-9.168807690731629</v>
+        <v>-7.338626337255988</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.03221872503435347</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02625604845921981</v>
+        <v>0.03888384873672467</v>
       </c>
       <c r="H41" t="n">
-        <v>-18.50686695012267</v>
+        <v>20.68711190546636</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.120905430485417</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1209285338811033</v>
+        <v>0.1200430566872892</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0191086501189757</v>
+        <v>-0.7132630806288016</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1277854472102046</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1266551918341156</v>
+        <v>0.1249960543188665</v>
       </c>
       <c r="H43" t="n">
-        <v>-0.884494596814097</v>
+        <v>-2.182872112776352</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03966663921623352</v>
       </c>
       <c r="G44" t="n">
-        <v>0.04217150620522603</v>
+        <v>0.03022879591755538</v>
       </c>
       <c r="H44" t="n">
-        <v>6.314795098565834</v>
+        <v>-23.79289873092075</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.03116235293120943</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03595875262900555</v>
+        <v>0.03967307773274016</v>
       </c>
       <c r="H45" t="n">
-        <v>15.39164808377636</v>
+        <v>27.31091846728669</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.05661766501078581</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05686179819159423</v>
+        <v>0.06375237553196902</v>
       </c>
       <c r="H46" t="n">
-        <v>0.4311961306809745</v>
+        <v>12.60156263919403</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.05867018666263921</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06224557545466997</v>
+        <v>0.06109720973819019</v>
       </c>
       <c r="H47" t="n">
-        <v>6.094047071282885</v>
+        <v>4.136722948414437</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.0492573227224047</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04623503830400241</v>
+        <v>0.05117968818501604</v>
       </c>
       <c r="H48" t="n">
-        <v>-6.13570582273567</v>
+        <v>3.902699855298778</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.04556774728077833</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03881861603957311</v>
+        <v>0.04660715296829505</v>
       </c>
       <c r="H49" t="n">
-        <v>-14.81120231732891</v>
+        <v>2.281011789132631</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.02648648375354524</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02640027500007253</v>
+        <v>0.02287096329384958</v>
       </c>
       <c r="H50" t="n">
-        <v>-0.3254820620014274</v>
+        <v>-13.65043579713264</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.02801586845999868</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02837092203851672</v>
+        <v>0.02840327117846986</v>
       </c>
       <c r="H51" t="n">
-        <v>1.267330259724016</v>
+        <v>1.382797463602878</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.0869236411111307</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.08625186371179056</v>
+        <v>-0.08580245521385596</v>
       </c>
       <c r="H52" t="n">
-        <v>0.7728362396615259</v>
+        <v>1.28985150983415</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.08021620192907158</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07801219005127261</v>
+        <v>-0.08041369526160598</v>
       </c>
       <c r="H53" t="n">
-        <v>2.747589420585881</v>
+        <v>-0.2462013007160604</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.05002670192732103</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04783999368801759</v>
+        <v>0.04901220076012972</v>
       </c>
       <c r="H54" t="n">
-        <v>-4.37108215224801</v>
+        <v>-2.02791934728214</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.05628505677750023</v>
       </c>
       <c r="G55" t="n">
-        <v>0.05289278510971154</v>
+        <v>0.06014393012333171</v>
       </c>
       <c r="H55" t="n">
-        <v>-6.026949002110161</v>
+        <v>6.855946439009461</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04943189498738422</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04984459331968557</v>
+        <v>0.04711405073869959</v>
       </c>
       <c r="H56" t="n">
-        <v>0.8348826853728268</v>
+        <v>-4.688964987638402</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.03798397785815282</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0504877129872548</v>
+        <v>0.05269221828464761</v>
       </c>
       <c r="H57" t="n">
-        <v>32.91844570833489</v>
+        <v>38.7222225155595</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.05761405260974202</v>
       </c>
       <c r="G58" t="n">
-        <v>0.05800623984838288</v>
+        <v>0.05711225681876087</v>
       </c>
       <c r="H58" t="n">
-        <v>0.6807145494475143</v>
+        <v>-0.8709607608757222</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.05701330928205455</v>
       </c>
       <c r="G59" t="n">
-        <v>0.06340563821663482</v>
+        <v>0.05226098250534379</v>
       </c>
       <c r="H59" t="n">
-        <v>11.21199420815292</v>
+        <v>-8.335469097575427</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.0274599995184495</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03795475756637268</v>
+        <v>0.03150696321333957</v>
       </c>
       <c r="H60" t="n">
-        <v>38.21834753082236</v>
+        <v>14.73766848455711</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.02669782531682307</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03481304914890532</v>
+        <v>0.03491787351517571</v>
       </c>
       <c r="H61" t="n">
-        <v>30.39657251397406</v>
+        <v>30.78920511616709</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06244723127188902</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06323213624758801</v>
+        <v>0.06432817623783894</v>
       </c>
       <c r="H62" t="n">
-        <v>1.256909169089657</v>
+        <v>3.012055022520502</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.06388266935418922</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06453433221337211</v>
+        <v>0.06520598171726776</v>
       </c>
       <c r="H63" t="n">
-        <v>1.020093345770867</v>
+        <v>2.071473181155906</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.02773965742366112</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02250437337694905</v>
+        <v>0.02965341724951642</v>
       </c>
       <c r="H64" t="n">
-        <v>-18.87292249776137</v>
+        <v>6.899003100964459</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.03542725191258321</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02886771381773781</v>
+        <v>0.03339832469503045</v>
       </c>
       <c r="H65" t="n">
-        <v>-18.51551486700427</v>
+        <v>-5.727023994294394</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.07768318116585711</v>
       </c>
       <c r="G66" t="n">
-        <v>0.07937964866103574</v>
+        <v>0.08076698551228291</v>
       </c>
       <c r="H66" t="n">
-        <v>2.183828558149019</v>
+        <v>3.969719442670271</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.07887083315115107</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0822846333244569</v>
+        <v>0.08322477414282513</v>
       </c>
       <c r="H67" t="n">
-        <v>4.328342984235376</v>
+        <v>5.520343601962471</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.02174569273343878</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.0230784282516971</v>
+        <v>-0.02204873618446903</v>
       </c>
       <c r="H68" t="n">
-        <v>-6.128733329377666</v>
+        <v>-1.393579200924948</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.01914131219638707</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.02500571335017782</v>
+        <v>-0.0135694954079274</v>
       </c>
       <c r="H69" t="n">
-        <v>-30.63740402759669</v>
+        <v>29.108854875223</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.07198586282950344</v>
       </c>
       <c r="G70" t="n">
-        <v>0.07555875802645712</v>
+        <v>0.06754850956833322</v>
       </c>
       <c r="H70" t="n">
-        <v>4.963328987826384</v>
+        <v>-6.164200978850482</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.07942103784650886</v>
       </c>
       <c r="G71" t="n">
-        <v>0.07020440325943594</v>
+        <v>0.08256776905113471</v>
       </c>
       <c r="H71" t="n">
-        <v>-11.60477731968855</v>
+        <v>3.962087741420979</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.153641482353053</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1498602767390565</v>
+        <v>-0.141976198882637</v>
       </c>
       <c r="H72" t="n">
-        <v>2.461057753470293</v>
+        <v>7.592535096485426</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.1530755548355022</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1514292057344177</v>
+        <v>-0.151324181195321</v>
       </c>
       <c r="H73" t="n">
-        <v>1.075514051119194</v>
+        <v>1.144123659759551</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.1504191938700591</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1531379152630579</v>
+        <v>0.148909956860133</v>
       </c>
       <c r="H74" t="n">
-        <v>1.8074298386065</v>
+        <v>-1.003354007620764</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.1504473245389763</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1496555861218068</v>
+        <v>0.1568721216574535</v>
       </c>
       <c r="H75" t="n">
-        <v>-0.5262562292787016</v>
+        <v>4.270462860117357</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>-0.001036461659646316</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.001736312633021055</v>
+        <v>-0.003871832189997833</v>
       </c>
       <c r="H76" t="n">
-        <v>-67.52309329160883</v>
+        <v>-273.5625099069332</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>-0.002207887785011652</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.005859162608341979</v>
+        <v>0.005945211599917738</v>
       </c>
       <c r="H77" t="n">
-        <v>-165.3741122224224</v>
+        <v>369.2714566508805</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.08995825041656207</v>
       </c>
       <c r="G78" t="n">
-        <v>0.09266395776665452</v>
+        <v>0.09680732069173677</v>
       </c>
       <c r="H78" t="n">
-        <v>3.007736741836759</v>
+        <v>7.613609917333086</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.09690136472519406</v>
       </c>
       <c r="G79" t="n">
-        <v>0.09293278869200707</v>
+        <v>0.09847787780562213</v>
       </c>
       <c r="H79" t="n">
-        <v>-4.095480021815605</v>
+        <v>1.626925570036043</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.2164333678654655</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.2104528402323944</v>
+        <v>-0.223669795498965</v>
       </c>
       <c r="H80" t="n">
-        <v>2.763218856710008</v>
+        <v>-3.343489825467979</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2131138853448898</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2011668992220656</v>
+        <v>-0.2097406981482382</v>
       </c>
       <c r="H81" t="n">
-        <v>5.605916340687964</v>
+        <v>1.582809675302308</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1676176682046469</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1733460959593346</v>
+        <v>0.1714130635661462</v>
       </c>
       <c r="H82" t="n">
-        <v>3.417556046474623</v>
+        <v>2.264317003184549</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1760289321846955</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1670646425038058</v>
+        <v>0.174552637461663</v>
       </c>
       <c r="H83" t="n">
-        <v>-5.092509265172435</v>
+        <v>-0.8386659537782877</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.1061296970151781</v>
       </c>
       <c r="G84" t="n">
-        <v>0.09986064149770602</v>
+        <v>0.1091624818887864</v>
       </c>
       <c r="H84" t="n">
-        <v>-5.906975798277764</v>
+        <v>2.85762134341584</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,14 +3242,14 @@
         <v>0.1045588069048112</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1158676633681304</v>
+        <v>0.1127818040175307</v>
       </c>
       <c r="H85" t="n">
-        <v>10.81578567897644</v>
+        <v>7.864471062878129</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>